--- a/asset.xlsx
+++ b/asset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -44,6 +44,111 @@
   </x:si>
   <x:si>
     <x:t>ReasonToReject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_1.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Asset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Asset tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Asset Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Asset Name </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Asset Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Asset Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Asset with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Asset is created</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Asset</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Asset tab,  and select a Asset </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Asset Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Asset name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Asset Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edit Asset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Asset tab,  and click on existing Asset to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Asset Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the Asset is edited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Asset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Asset tab,  and select the existing  Asset to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on to the Delete to Delete the Asset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Asset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Confirm / OK to delete the  Asset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the Asset is deleted</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -127,8 +232,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J2" totalsRowShown="0">
-  <x:autoFilter ref="A1:J2"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J12" totalsRowShown="0">
+  <x:autoFilter ref="A1:J12"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -433,20 +538,20 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J2"/>
+  <x:dimension ref="A1:J12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.550625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.270625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="39.700625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="12.550625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="16.700625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="57.270625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="91.270625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -484,16 +589,238 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:10">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
+      <x:c r="A2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
-      <x:c r="G2" s="0" t="s"/>
-      <x:c r="H2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="I2" s="0" t="s"/>
       <x:c r="J2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:10">
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:10">
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s"/>
+      <x:c r="F4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:10">
+      <x:c r="A5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s"/>
+      <x:c r="F5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:10">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s"/>
+      <x:c r="F6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:10">
+      <x:c r="A7" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s"/>
+      <x:c r="F7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s"/>
+      <x:c r="J7" s="0" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:10">
+      <x:c r="A8" s="0" t="s"/>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s"/>
+      <x:c r="J8" s="0" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:10">
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s"/>
+      <x:c r="F9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s"/>
+      <x:c r="J9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s"/>
+      <x:c r="F10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s"/>
+      <x:c r="F11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s"/>
+      <x:c r="F12" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
